--- a/data/trans_dic/P27D_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P27D_R-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -37,7 +38,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -50,6 +51,27 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin"/>
@@ -476,7 +498,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -492,12 +514,15 @@
     <col width="14" customWidth="1" min="3" max="3"/>
     <col width="14" customWidth="1" min="4" max="4"/>
     <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población  que ha sido ingresada en un hospital al menos durante una noche en los últimos 12 meses</t>
+          <t>Población  que ha sido ingresada en un hospital al menos durante una noche en los últimos 12 meses (tasa de respuesta: 99,87%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -506,16 +531,19 @@
           <t>Hombre</t>
         </is>
       </c>
-      <c r="D1" s="3" t="inlineStr">
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
+      <c r="H1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -527,12 +555,27 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -542,6 +585,9 @@
       <c r="C3" s="2" t="n"/>
       <c r="D3" s="2" t="n"/>
       <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -556,17 +602,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>10,82%</t>
+          <t>10,81%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>5,29%</t>
+          <t>2,44%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
+          <t>5,3%</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>7,39%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
           <t>8,22%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>4,79%</t>
         </is>
       </c>
     </row>
@@ -579,17 +640,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>5,65; 18,5</t>
+          <t>5,56; 18,03</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>2,47; 11,78</t>
+          <t>0,0; 9,34</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>4,78; 12,45</t>
+          <t>1,8; 10,55</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>3,91; 13,35</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>5,05; 12,63</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>2,49; 8,53</t>
         </is>
       </c>
     </row>
@@ -611,12 +687,27 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>13,07%</t>
+          <t>1,8%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>9,03%</t>
+          <t>13,06%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>14,26%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>9,02%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>7,89%</t>
         </is>
       </c>
     </row>
@@ -629,17 +720,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,76; 12,95</t>
+          <t>1,76; 11,54</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>8,14; 20,12</t>
+          <t>0,0; 6,19</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>6,07; 13,54</t>
+          <t>8,51; 20,0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>9,51; 20,21</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>5,78; 13,09</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>4,99; 11,09</t>
         </is>
       </c>
     </row>
@@ -661,12 +767,27 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
+          <t>6,08%</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
           <t>7,67%</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>8,83%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
         <is>
           <t>5,56%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>7,38%</t>
         </is>
       </c>
     </row>
@@ -679,17 +800,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,66; 7,02</t>
+          <t>1,66; 6,65</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>4,76; 12,55</t>
+          <t>2,94; 11,32</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>3,72; 7,98</t>
+          <t>4,8; 11,54</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>5,58; 12,74</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>3,77; 7,95</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>5,08; 10,46</t>
         </is>
       </c>
     </row>
@@ -711,12 +847,27 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
+          <t>7,94%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
           <t>4,61%</t>
         </is>
       </c>
-      <c r="E10" s="2" t="inlineStr">
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>8,43%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
         <is>
           <t>5,81%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>8,18%</t>
         </is>
       </c>
     </row>
@@ -729,17 +880,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>4,13; 11,52</t>
+          <t>3,84; 10,82</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,51; 8,1</t>
+          <t>4,32; 14,04</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>3,9; 8,3</t>
+          <t>2,48; 8,03</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>5,29; 12,9</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>3,92; 8,33</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>5,79; 11,58</t>
         </is>
       </c>
     </row>
@@ -761,12 +927,27 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>11,04%</t>
+          <t>10,74%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
+          <t>11,05%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>10,41%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
           <t>13,01%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>10,57%</t>
         </is>
       </c>
     </row>
@@ -779,17 +960,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>10,54; 21,24</t>
+          <t>10,61; 21,77</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>7,15; 15,5</t>
+          <t>6,66; 15,98</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>9,8; 16,67</t>
+          <t>7,41; 15,75</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>6,99; 14,93</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>9,82; 16,98</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>7,81; 14,21</t>
         </is>
       </c>
     </row>
@@ -806,17 +1002,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>10,48%</t>
+          <t>10,47%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
+          <t>10,8%</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
           <t>16,18%</t>
         </is>
       </c>
-      <c r="E14" s="2" t="inlineStr">
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>12,04%</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
         <is>
           <t>13,76%</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>11,52%</t>
         </is>
       </c>
     </row>
@@ -829,17 +1040,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>5,87; 17,23</t>
+          <t>5,89; 17,03</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>9,51; 23,49</t>
+          <t>6,27; 17,11</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>9,45; 18,73</t>
+          <t>10,63; 24,14</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>7,92; 18,28</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>9,75; 19,08</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>8,33; 15,81</t>
         </is>
       </c>
     </row>
@@ -861,12 +1087,27 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
+          <t>6,66%</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
           <t>10,02%</t>
         </is>
       </c>
-      <c r="E16" s="2" t="inlineStr">
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>10,31%</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
         <is>
           <t>9,16%</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>8,5%</t>
         </is>
       </c>
     </row>
@@ -879,25 +1120,50 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>6,53; 10,33</t>
+          <t>6,6; 10,43</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>8,16; 12,35</t>
+          <t>5,17; 8,59</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>7,96; 10,69</t>
+          <t>8,18; 12,28</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>8,84; 12,3</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>7,76; 10,45</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>7,38; 9,85</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="11">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="E1:F1"/>
     <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A6:A7"/>
@@ -906,4 +1172,952 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población  que ha sido ingresada en un hospital al menos durante una noche en los últimos 12 meses (tasa de respuesta: 99,87%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>4550</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>1038</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>1980</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>2832</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>6531</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>3870</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>2337; 7588</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>0; 3968</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>672; 3946</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>1499; 5115</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>4011; 10040</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>2013; 6890</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>2594</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>859</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>6167</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>6517</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>8761</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>7376</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>876; 5757</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>0; 2961</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>4018; 9441</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>4347; 9239</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>5614; 12712</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>4669; 10370</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>2216</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>3694</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>4135</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>4842</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>6351</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>8537</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>1000; 4002</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>1785; 6882</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>2587; 6219</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>3063; 6990</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>4298; 9070</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>5868; 12096</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>4009</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>4500</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>2418</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>4512</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>6427</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>9012</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>2239; 6306</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>2448; 7961</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>1302; 4211</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>2831; 6901</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>4335; 9221</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>6376; 12764</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>50.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>6744</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>4845</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>5387</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>4876</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>12131</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>9721</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>4721; 9684</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>3006; 7211</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>3615; 7682</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>3275; 6996</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>9154; 15837</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>7185; 13072</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>4902</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>4951</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>10309</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>7628</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>15212</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>12579</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>2759; 7978</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>2874; 7845</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>6775; 15385</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>5020; 11587</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>10782; 21099</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>9096; 17272</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>78.0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>62.0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>102.0</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>117.0</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>180.0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>179.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>25016</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>19887</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>30397</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>31208</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>55412</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>51096</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>19903; 31486</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>15449; 25667</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>24829; 37276</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>26753; 37233</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>46968; 63222</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>44364; 59199</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/data/trans_dic/P27D_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P27D_R-Edad-trans_dic.xlsx
@@ -38,7 +38,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -64,6 +64,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -498,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -517,12 +524,15 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población  que ha sido ingresada en un hospital al menos durante una noche en los últimos 12 meses (tasa de respuesta: 99,87%)</t>
+          <t>Población  que ha sido ingresada en un hospital al menos durante una noche en los últimos 12 meses (tasa de respuesta: 99,89%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -532,48 +542,66 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="E2" s="3" t="inlineStr">
         <is>
           <t>Mz2</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>Mz2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>Mz2</t>
         </is>
@@ -588,6 +616,9 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -602,30 +633,45 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>4,55%</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
           <t>10,81%</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
+      <c r="E4" s="2" t="inlineStr">
         <is>
           <t>2,44%</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr">
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>4,95%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
         <is>
           <t>5,3%</t>
         </is>
       </c>
-      <c r="F4" s="2" t="inlineStr">
+      <c r="H4" s="2" t="inlineStr">
         <is>
           <t>7,39%</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>4,75%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
         <is>
           <t>8,22%</t>
         </is>
       </c>
-      <c r="H4" s="2" t="inlineStr">
+      <c r="K4" s="2" t="inlineStr">
         <is>
           <t>4,79%</t>
         </is>
@@ -640,30 +686,45 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>1,11; 11,28</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
           <t>5,56; 18,03</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
+      <c r="E5" s="2" t="inlineStr">
         <is>
           <t>0,0; 9,34</t>
         </is>
       </c>
-      <c r="E5" s="2" t="inlineStr">
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>2,21; 9,32</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
         <is>
           <t>1,8; 10,55</t>
         </is>
       </c>
-      <c r="F5" s="2" t="inlineStr">
+      <c r="H5" s="2" t="inlineStr">
         <is>
           <t>3,91; 13,35</t>
         </is>
       </c>
-      <c r="G5" s="2" t="inlineStr">
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>2,69; 8,24</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
         <is>
           <t>5,05; 12,63</t>
         </is>
       </c>
-      <c r="H5" s="2" t="inlineStr">
+      <c r="K5" s="2" t="inlineStr">
         <is>
           <t>2,49; 8,53</t>
         </is>
@@ -682,30 +743,45 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>3,31%</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
           <t>5,2%</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
+      <c r="E6" s="2" t="inlineStr">
         <is>
           <t>1,8%</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>9,99%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
         <is>
           <t>13,06%</t>
         </is>
       </c>
-      <c r="F6" s="2" t="inlineStr">
+      <c r="H6" s="2" t="inlineStr">
         <is>
           <t>14,26%</t>
         </is>
       </c>
-      <c r="G6" s="2" t="inlineStr">
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>6,42%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
         <is>
           <t>9,02%</t>
         </is>
       </c>
-      <c r="H6" s="2" t="inlineStr">
+      <c r="K6" s="2" t="inlineStr">
         <is>
           <t>7,89%</t>
         </is>
@@ -720,30 +796,45 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>1,13; 7,23</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
           <t>1,76; 11,54</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
+      <c r="E7" s="2" t="inlineStr">
         <is>
           <t>0,0; 6,19</t>
         </is>
       </c>
-      <c r="E7" s="2" t="inlineStr">
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>6,09; 15,58</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
         <is>
           <t>8,51; 20,0</t>
         </is>
       </c>
-      <c r="F7" s="2" t="inlineStr">
+      <c r="H7" s="2" t="inlineStr">
         <is>
           <t>9,51; 20,21</t>
         </is>
       </c>
-      <c r="G7" s="2" t="inlineStr">
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>4,17; 9,69</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
         <is>
           <t>5,78; 13,09</t>
         </is>
       </c>
-      <c r="H7" s="2" t="inlineStr">
+      <c r="K7" s="2" t="inlineStr">
         <is>
           <t>4,99; 11,09</t>
         </is>
@@ -762,30 +853,45 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>3,86%</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
           <t>3,68%</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
+      <c r="E8" s="2" t="inlineStr">
         <is>
           <t>6,08%</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>8,37%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
         <is>
           <t>7,67%</t>
         </is>
       </c>
-      <c r="F8" s="2" t="inlineStr">
+      <c r="H8" s="2" t="inlineStr">
         <is>
           <t>8,83%</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>6,18%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
         <is>
           <t>5,56%</t>
         </is>
       </c>
-      <c r="H8" s="2" t="inlineStr">
+      <c r="K8" s="2" t="inlineStr">
         <is>
           <t>7,38%</t>
         </is>
@@ -800,30 +906,45 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>1,96; 7,22</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
           <t>1,66; 6,65</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
+      <c r="E9" s="2" t="inlineStr">
         <is>
           <t>2,94; 11,32</t>
         </is>
       </c>
-      <c r="E9" s="2" t="inlineStr">
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>5,78; 11,77</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
         <is>
           <t>4,8; 11,54</t>
         </is>
       </c>
-      <c r="F9" s="2" t="inlineStr">
+      <c r="H9" s="2" t="inlineStr">
         <is>
           <t>5,58; 12,74</t>
         </is>
       </c>
-      <c r="G9" s="2" t="inlineStr">
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>4,5; 8,78</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
         <is>
           <t>3,77; 7,95</t>
         </is>
       </c>
-      <c r="H9" s="2" t="inlineStr">
+      <c r="K9" s="2" t="inlineStr">
         <is>
           <t>5,08; 10,46</t>
         </is>
@@ -842,30 +963,45 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>8,87%</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
           <t>6,88%</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
+      <c r="E10" s="2" t="inlineStr">
         <is>
           <t>7,94%</t>
         </is>
       </c>
-      <c r="E10" s="2" t="inlineStr">
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>7,46%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
         <is>
           <t>4,61%</t>
         </is>
       </c>
-      <c r="F10" s="2" t="inlineStr">
+      <c r="H10" s="2" t="inlineStr">
         <is>
           <t>8,43%</t>
         </is>
       </c>
-      <c r="G10" s="2" t="inlineStr">
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>8,16%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
         <is>
           <t>5,81%</t>
         </is>
       </c>
-      <c r="H10" s="2" t="inlineStr">
+      <c r="K10" s="2" t="inlineStr">
         <is>
           <t>8,18%</t>
         </is>
@@ -880,30 +1016,45 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>5,99; 12,71</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
           <t>3,84; 10,82</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
+      <c r="E11" s="2" t="inlineStr">
         <is>
           <t>4,32; 14,04</t>
         </is>
       </c>
-      <c r="E11" s="2" t="inlineStr">
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>4,74; 11,76</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
         <is>
           <t>2,48; 8,03</t>
         </is>
       </c>
-      <c r="F11" s="2" t="inlineStr">
+      <c r="H11" s="2" t="inlineStr">
         <is>
           <t>5,29; 12,9</t>
         </is>
       </c>
-      <c r="G11" s="2" t="inlineStr">
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>6,08; 10,66</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
         <is>
           <t>3,92; 8,33</t>
         </is>
       </c>
-      <c r="H11" s="2" t="inlineStr">
+      <c r="K11" s="2" t="inlineStr">
         <is>
           <t>5,79; 11,58</t>
         </is>
@@ -922,30 +1073,45 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>8,32%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
           <t>15,16%</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
+      <c r="E12" s="2" t="inlineStr">
         <is>
           <t>10,74%</t>
         </is>
       </c>
-      <c r="E12" s="2" t="inlineStr">
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>13,39%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
         <is>
           <t>11,05%</t>
         </is>
       </c>
-      <c r="F12" s="2" t="inlineStr">
+      <c r="H12" s="2" t="inlineStr">
         <is>
           <t>10,41%</t>
         </is>
       </c>
-      <c r="G12" s="2" t="inlineStr">
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>10,91%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
         <is>
           <t>13,01%</t>
         </is>
       </c>
-      <c r="H12" s="2" t="inlineStr">
+      <c r="K12" s="2" t="inlineStr">
         <is>
           <t>10,57%</t>
         </is>
@@ -960,30 +1126,45 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
+          <t>5,17; 13,01</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
           <t>10,61; 21,77</t>
         </is>
       </c>
-      <c r="D13" s="2" t="inlineStr">
+      <c r="E13" s="2" t="inlineStr">
         <is>
           <t>6,66; 15,98</t>
         </is>
       </c>
-      <c r="E13" s="2" t="inlineStr">
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>8,76; 18,61</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
         <is>
           <t>7,41; 15,75</t>
         </is>
       </c>
-      <c r="F13" s="2" t="inlineStr">
+      <c r="H13" s="2" t="inlineStr">
         <is>
           <t>6,99; 14,93</t>
         </is>
       </c>
-      <c r="G13" s="2" t="inlineStr">
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>8,12; 14,29</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
         <is>
           <t>9,82; 16,98</t>
         </is>
       </c>
-      <c r="H13" s="2" t="inlineStr">
+      <c r="K13" s="2" t="inlineStr">
         <is>
           <t>7,81; 14,21</t>
         </is>
@@ -1002,30 +1183,45 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>18,07%</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
           <t>10,47%</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
+      <c r="E14" s="2" t="inlineStr">
         <is>
           <t>10,8%</t>
         </is>
       </c>
-      <c r="E14" s="2" t="inlineStr">
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>12,3%</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
         <is>
           <t>16,18%</t>
         </is>
       </c>
-      <c r="F14" s="2" t="inlineStr">
+      <c r="H14" s="2" t="inlineStr">
         <is>
           <t>12,04%</t>
         </is>
       </c>
-      <c r="G14" s="2" t="inlineStr">
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>14,86%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
         <is>
           <t>13,76%</t>
         </is>
       </c>
-      <c r="H14" s="2" t="inlineStr">
+      <c r="K14" s="2" t="inlineStr">
         <is>
           <t>11,52%</t>
         </is>
@@ -1040,30 +1236,45 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
+          <t>12,15; 24,76</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
           <t>5,89; 17,03</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
+      <c r="E15" s="2" t="inlineStr">
         <is>
           <t>6,27; 17,11</t>
         </is>
       </c>
-      <c r="E15" s="2" t="inlineStr">
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>6,5; 22,93</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
         <is>
           <t>10,63; 24,14</t>
         </is>
       </c>
-      <c r="F15" s="2" t="inlineStr">
+      <c r="H15" s="2" t="inlineStr">
         <is>
           <t>7,92; 18,28</t>
         </is>
       </c>
-      <c r="G15" s="2" t="inlineStr">
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>10,82; 20,89</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
         <is>
           <t>9,75; 19,08</t>
         </is>
       </c>
-      <c r="H15" s="2" t="inlineStr">
+      <c r="K15" s="2" t="inlineStr">
         <is>
           <t>8,33; 15,81</t>
         </is>
@@ -1082,30 +1293,45 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
+          <t>7,79%</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
           <t>8,29%</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
+      <c r="E16" s="2" t="inlineStr">
         <is>
           <t>6,66%</t>
         </is>
       </c>
-      <c r="E16" s="2" t="inlineStr">
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>9,48%</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
         <is>
           <t>10,02%</t>
         </is>
       </c>
-      <c r="F16" s="2" t="inlineStr">
+      <c r="H16" s="2" t="inlineStr">
         <is>
           <t>10,31%</t>
         </is>
       </c>
-      <c r="G16" s="2" t="inlineStr">
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>8,65%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
         <is>
           <t>9,16%</t>
         </is>
       </c>
-      <c r="H16" s="2" t="inlineStr">
+      <c r="K16" s="2" t="inlineStr">
         <is>
           <t>8,5%</t>
         </is>
@@ -1120,30 +1346,45 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>6,23; 9,69</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
           <t>6,6; 10,43</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
+      <c r="E17" s="2" t="inlineStr">
         <is>
           <t>5,17; 8,59</t>
         </is>
       </c>
-      <c r="E17" s="2" t="inlineStr">
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>7,69; 11,82</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
         <is>
           <t>8,18; 12,28</t>
         </is>
       </c>
-      <c r="F17" s="2" t="inlineStr">
+      <c r="H17" s="2" t="inlineStr">
         <is>
           <t>8,84; 12,3</t>
         </is>
       </c>
-      <c r="G17" s="2" t="inlineStr">
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>7,36; 10,1</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
         <is>
           <t>7,76; 10,45</t>
         </is>
       </c>
-      <c r="H17" s="2" t="inlineStr">
+      <c r="K17" s="2" t="inlineStr">
         <is>
           <t>7,38; 9,85</t>
         </is>
@@ -1158,12 +1399,12 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A6:A7"/>
@@ -1180,7 +1421,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1199,12 +1440,15 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población  que ha sido ingresada en un hospital al menos durante una noche en los últimos 12 meses (tasa de respuesta: 99,87%)</t>
+          <t>Población  que ha sido ingresada en un hospital al menos durante una noche en los últimos 12 meses (tasa de respuesta: 99,89%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -1214,48 +1458,66 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="E2" s="3" t="inlineStr">
         <is>
           <t>Mz2</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>Mz2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>Mz2</t>
         </is>
@@ -1270,6 +1532,9 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -1284,30 +1549,45 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
           <t>11.0</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
+      <c r="E4" s="2" t="inlineStr">
         <is>
           <t>2.0</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr">
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
         <is>
           <t>6.0</t>
         </is>
       </c>
-      <c r="F4" s="2" t="inlineStr">
+      <c r="H4" s="2" t="inlineStr">
         <is>
           <t>10.0</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
         <is>
           <t>17.0</t>
         </is>
       </c>
-      <c r="H4" s="2" t="inlineStr">
+      <c r="K4" s="2" t="inlineStr">
         <is>
           <t>12.0</t>
         </is>
@@ -1322,30 +1602,45 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>21435</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
           <t>4550</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
+      <c r="E5" s="2" t="inlineStr">
         <is>
           <t>1038</t>
         </is>
       </c>
-      <c r="E5" s="2" t="inlineStr">
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>23620</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
         <is>
           <t>1980</t>
         </is>
       </c>
-      <c r="F5" s="2" t="inlineStr">
+      <c r="H5" s="2" t="inlineStr">
         <is>
           <t>2832</t>
         </is>
       </c>
-      <c r="G5" s="2" t="inlineStr">
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>45055</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
         <is>
           <t>6531</t>
         </is>
       </c>
-      <c r="H5" s="2" t="inlineStr">
+      <c r="K5" s="2" t="inlineStr">
         <is>
           <t>3870</t>
         </is>
@@ -1360,30 +1655,45 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>5227; 53129</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
           <t>2337; 7588</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
+      <c r="E6" s="2" t="inlineStr">
         <is>
           <t>0; 3968</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>10561; 44462</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
         <is>
           <t>672; 3946</t>
         </is>
       </c>
-      <c r="F6" s="2" t="inlineStr">
+      <c r="H6" s="2" t="inlineStr">
         <is>
           <t>1499; 5115</t>
         </is>
       </c>
-      <c r="G6" s="2" t="inlineStr">
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>25486; 78181</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
         <is>
           <t>4011; 10040</t>
         </is>
       </c>
-      <c r="H6" s="2" t="inlineStr">
+      <c r="K6" s="2" t="inlineStr">
         <is>
           <t>2013; 6890</t>
         </is>
@@ -1407,25 +1717,40 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
           <t>2.0</t>
         </is>
       </c>
-      <c r="E7" s="2" t="inlineStr">
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
         <is>
           <t>22.0</t>
         </is>
       </c>
-      <c r="F7" s="2" t="inlineStr">
+      <c r="H7" s="2" t="inlineStr">
         <is>
           <t>24.0</t>
         </is>
       </c>
-      <c r="G7" s="2" t="inlineStr">
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
         <is>
           <t>27.0</t>
         </is>
       </c>
-      <c r="H7" s="2" t="inlineStr">
+      <c r="K7" s="2" t="inlineStr">
         <is>
           <t>26.0</t>
         </is>
@@ -1440,30 +1765,45 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>19205</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
           <t>2594</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
+      <c r="E8" s="2" t="inlineStr">
         <is>
           <t>859</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>50441</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
         <is>
           <t>6167</t>
         </is>
       </c>
-      <c r="F8" s="2" t="inlineStr">
+      <c r="H8" s="2" t="inlineStr">
         <is>
           <t>6517</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>69646</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
         <is>
           <t>8761</t>
         </is>
       </c>
-      <c r="H8" s="2" t="inlineStr">
+      <c r="K8" s="2" t="inlineStr">
         <is>
           <t>7376</t>
         </is>
@@ -1478,30 +1818,45 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>6559; 41922</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
           <t>876; 5757</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
+      <c r="E9" s="2" t="inlineStr">
         <is>
           <t>0; 2961</t>
         </is>
       </c>
-      <c r="E9" s="2" t="inlineStr">
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>30776; 78720</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
         <is>
           <t>4018; 9441</t>
         </is>
       </c>
-      <c r="F9" s="2" t="inlineStr">
+      <c r="H9" s="2" t="inlineStr">
         <is>
           <t>4347; 9239</t>
         </is>
       </c>
-      <c r="G9" s="2" t="inlineStr">
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>45280; 105183</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
         <is>
           <t>5614; 12712</t>
         </is>
       </c>
-      <c r="H9" s="2" t="inlineStr">
+      <c r="K9" s="2" t="inlineStr">
         <is>
           <t>4669; 10370</t>
         </is>
@@ -1520,30 +1875,45 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
           <t>8.0</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
+      <c r="E10" s="2" t="inlineStr">
         <is>
           <t>10.0</t>
         </is>
       </c>
-      <c r="E10" s="2" t="inlineStr">
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
         <is>
           <t>18.0</t>
         </is>
       </c>
-      <c r="F10" s="2" t="inlineStr">
+      <c r="H10" s="2" t="inlineStr">
         <is>
           <t>20.0</t>
         </is>
       </c>
-      <c r="G10" s="2" t="inlineStr">
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
         <is>
           <t>26.0</t>
         </is>
       </c>
-      <c r="H10" s="2" t="inlineStr">
+      <c r="K10" s="2" t="inlineStr">
         <is>
           <t>30.0</t>
         </is>
@@ -1558,30 +1928,45 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>26213</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
           <t>2216</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
+      <c r="E11" s="2" t="inlineStr">
         <is>
           <t>3694</t>
         </is>
       </c>
-      <c r="E11" s="2" t="inlineStr">
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>60080</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
         <is>
           <t>4135</t>
         </is>
       </c>
-      <c r="F11" s="2" t="inlineStr">
+      <c r="H11" s="2" t="inlineStr">
         <is>
           <t>4842</t>
         </is>
       </c>
-      <c r="G11" s="2" t="inlineStr">
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>86293</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
         <is>
           <t>6351</t>
         </is>
       </c>
-      <c r="H11" s="2" t="inlineStr">
+      <c r="K11" s="2" t="inlineStr">
         <is>
           <t>8537</t>
         </is>
@@ -1596,30 +1981,45 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>13314; 49009</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
           <t>1000; 4002</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
+      <c r="E12" s="2" t="inlineStr">
         <is>
           <t>1785; 6882</t>
         </is>
       </c>
-      <c r="E12" s="2" t="inlineStr">
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>41434; 84461</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
         <is>
           <t>2587; 6219</t>
         </is>
       </c>
-      <c r="F12" s="2" t="inlineStr">
+      <c r="H12" s="2" t="inlineStr">
         <is>
           <t>3063; 6990</t>
         </is>
       </c>
-      <c r="G12" s="2" t="inlineStr">
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>62779; 122648</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
         <is>
           <t>4298; 9070</t>
         </is>
       </c>
-      <c r="H12" s="2" t="inlineStr">
+      <c r="K12" s="2" t="inlineStr">
         <is>
           <t>5868; 12096</t>
         </is>
@@ -1638,30 +2038,45 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
           <t>14.0</t>
         </is>
       </c>
-      <c r="D13" s="2" t="inlineStr">
+      <c r="E13" s="2" t="inlineStr">
         <is>
           <t>14.0</t>
         </is>
       </c>
-      <c r="E13" s="2" t="inlineStr">
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
         <is>
           <t>11.0</t>
         </is>
       </c>
-      <c r="F13" s="2" t="inlineStr">
+      <c r="H13" s="2" t="inlineStr">
         <is>
           <t>20.0</t>
         </is>
       </c>
-      <c r="G13" s="2" t="inlineStr">
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>45.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
         <is>
           <t>25.0</t>
         </is>
       </c>
-      <c r="H13" s="2" t="inlineStr">
+      <c r="K13" s="2" t="inlineStr">
         <is>
           <t>34.0</t>
         </is>
@@ -1676,30 +2091,45 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>58347</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
           <t>4009</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
+      <c r="E14" s="2" t="inlineStr">
         <is>
           <t>4500</t>
         </is>
       </c>
-      <c r="E14" s="2" t="inlineStr">
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>49325</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
         <is>
           <t>2418</t>
         </is>
       </c>
-      <c r="F14" s="2" t="inlineStr">
+      <c r="H14" s="2" t="inlineStr">
         <is>
           <t>4512</t>
         </is>
       </c>
-      <c r="G14" s="2" t="inlineStr">
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>107672</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
         <is>
           <t>6427</t>
         </is>
       </c>
-      <c r="H14" s="2" t="inlineStr">
+      <c r="K14" s="2" t="inlineStr">
         <is>
           <t>9012</t>
         </is>
@@ -1714,30 +2144,45 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
+          <t>39400; 83667</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
           <t>2239; 6306</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
+      <c r="E15" s="2" t="inlineStr">
         <is>
           <t>2448; 7961</t>
         </is>
       </c>
-      <c r="E15" s="2" t="inlineStr">
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>31383; 77761</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
         <is>
           <t>1302; 4211</t>
         </is>
       </c>
-      <c r="F15" s="2" t="inlineStr">
+      <c r="H15" s="2" t="inlineStr">
         <is>
           <t>2831; 6901</t>
         </is>
       </c>
-      <c r="G15" s="2" t="inlineStr">
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>80211; 140694</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
         <is>
           <t>4335; 9221</t>
         </is>
       </c>
-      <c r="H15" s="2" t="inlineStr">
+      <c r="K15" s="2" t="inlineStr">
         <is>
           <t>6376; 12764</t>
         </is>
@@ -1756,30 +2201,45 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
           <t>26.0</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
+      <c r="E16" s="2" t="inlineStr">
         <is>
           <t>19.0</t>
         </is>
       </c>
-      <c r="E16" s="2" t="inlineStr">
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
         <is>
           <t>24.0</t>
         </is>
       </c>
-      <c r="F16" s="2" t="inlineStr">
+      <c r="H16" s="2" t="inlineStr">
         <is>
           <t>22.0</t>
         </is>
       </c>
-      <c r="G16" s="2" t="inlineStr">
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>44.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
         <is>
           <t>50.0</t>
         </is>
       </c>
-      <c r="H16" s="2" t="inlineStr">
+      <c r="K16" s="2" t="inlineStr">
         <is>
           <t>41.0</t>
         </is>
@@ -1794,30 +2254,45 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>41187</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
           <t>6744</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
+      <c r="E17" s="2" t="inlineStr">
         <is>
           <t>4845</t>
         </is>
       </c>
-      <c r="E17" s="2" t="inlineStr">
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>69210</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
         <is>
           <t>5387</t>
         </is>
       </c>
-      <c r="F17" s="2" t="inlineStr">
+      <c r="H17" s="2" t="inlineStr">
         <is>
           <t>4876</t>
         </is>
       </c>
-      <c r="G17" s="2" t="inlineStr">
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>110397</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
         <is>
           <t>12131</t>
         </is>
       </c>
-      <c r="H17" s="2" t="inlineStr">
+      <c r="K17" s="2" t="inlineStr">
         <is>
           <t>9721</t>
         </is>
@@ -1832,30 +2307,45 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
+          <t>25575; 64401</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
           <t>4721; 9684</t>
         </is>
       </c>
-      <c r="D18" s="2" t="inlineStr">
+      <c r="E18" s="2" t="inlineStr">
         <is>
           <t>3006; 7211</t>
         </is>
       </c>
-      <c r="E18" s="2" t="inlineStr">
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>45305; 96189</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
         <is>
           <t>3615; 7682</t>
         </is>
       </c>
-      <c r="F18" s="2" t="inlineStr">
+      <c r="H18" s="2" t="inlineStr">
         <is>
           <t>3275; 6996</t>
         </is>
       </c>
-      <c r="G18" s="2" t="inlineStr">
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>82167; 144585</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
         <is>
           <t>9154; 15837</t>
         </is>
       </c>
-      <c r="H18" s="2" t="inlineStr">
+      <c r="K18" s="2" t="inlineStr">
         <is>
           <t>7185; 13072</t>
         </is>
@@ -1874,30 +2364,45 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
           <t>14.0</t>
         </is>
       </c>
-      <c r="D19" s="2" t="inlineStr">
+      <c r="E19" s="2" t="inlineStr">
         <is>
           <t>15.0</t>
         </is>
       </c>
-      <c r="E19" s="2" t="inlineStr">
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
         <is>
           <t>21.0</t>
         </is>
       </c>
-      <c r="F19" s="2" t="inlineStr">
+      <c r="H19" s="2" t="inlineStr">
         <is>
           <t>21.0</t>
         </is>
       </c>
-      <c r="G19" s="2" t="inlineStr">
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
         <is>
           <t>35.0</t>
         </is>
       </c>
-      <c r="H19" s="2" t="inlineStr">
+      <c r="K19" s="2" t="inlineStr">
         <is>
           <t>36.0</t>
         </is>
@@ -1912,30 +2417,45 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
+          <t>102341</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
           <t>4902</t>
         </is>
       </c>
-      <c r="D20" s="2" t="inlineStr">
+      <c r="E20" s="2" t="inlineStr">
         <is>
           <t>4951</t>
         </is>
       </c>
-      <c r="E20" s="2" t="inlineStr">
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>87731</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
         <is>
           <t>10309</t>
         </is>
       </c>
-      <c r="F20" s="2" t="inlineStr">
+      <c r="H20" s="2" t="inlineStr">
         <is>
           <t>7628</t>
         </is>
       </c>
-      <c r="G20" s="2" t="inlineStr">
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>190072</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
         <is>
           <t>15212</t>
         </is>
       </c>
-      <c r="H20" s="2" t="inlineStr">
+      <c r="K20" s="2" t="inlineStr">
         <is>
           <t>12579</t>
         </is>
@@ -1950,30 +2470,45 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
+          <t>68830; 140240</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
           <t>2759; 7978</t>
         </is>
       </c>
-      <c r="D21" s="2" t="inlineStr">
+      <c r="E21" s="2" t="inlineStr">
         <is>
           <t>2874; 7845</t>
         </is>
       </c>
-      <c r="E21" s="2" t="inlineStr">
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>46356; 163459</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
         <is>
           <t>6775; 15385</t>
         </is>
       </c>
-      <c r="F21" s="2" t="inlineStr">
+      <c r="H21" s="2" t="inlineStr">
         <is>
           <t>5020; 11587</t>
         </is>
       </c>
-      <c r="G21" s="2" t="inlineStr">
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>138436; 267267</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
         <is>
           <t>10782; 21099</t>
         </is>
       </c>
-      <c r="H21" s="2" t="inlineStr">
+      <c r="K21" s="2" t="inlineStr">
         <is>
           <t>9096; 17272</t>
         </is>
@@ -1992,30 +2527,45 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
+          <t>85.0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
           <t>78.0</t>
         </is>
       </c>
-      <c r="D22" s="2" t="inlineStr">
+      <c r="E22" s="2" t="inlineStr">
         <is>
           <t>62.0</t>
         </is>
       </c>
-      <c r="E22" s="2" t="inlineStr">
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>114.0</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
         <is>
           <t>102.0</t>
         </is>
       </c>
-      <c r="F22" s="2" t="inlineStr">
+      <c r="H22" s="2" t="inlineStr">
         <is>
           <t>117.0</t>
         </is>
       </c>
-      <c r="G22" s="2" t="inlineStr">
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>199.0</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
         <is>
           <t>180.0</t>
         </is>
       </c>
-      <c r="H22" s="2" t="inlineStr">
+      <c r="K22" s="2" t="inlineStr">
         <is>
           <t>179.0</t>
         </is>
@@ -2030,30 +2580,45 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
+          <t>268728</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
           <t>25016</t>
         </is>
       </c>
-      <c r="D23" s="2" t="inlineStr">
+      <c r="E23" s="2" t="inlineStr">
         <is>
           <t>19887</t>
         </is>
       </c>
-      <c r="E23" s="2" t="inlineStr">
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>340407</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
         <is>
           <t>30397</t>
         </is>
       </c>
-      <c r="F23" s="2" t="inlineStr">
+      <c r="H23" s="2" t="inlineStr">
         <is>
           <t>31208</t>
         </is>
       </c>
-      <c r="G23" s="2" t="inlineStr">
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>609135</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
         <is>
           <t>55412</t>
         </is>
       </c>
-      <c r="H23" s="2" t="inlineStr">
+      <c r="K23" s="2" t="inlineStr">
         <is>
           <t>51096</t>
         </is>
@@ -2068,30 +2633,45 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
+          <t>215024; 334154</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
           <t>19903; 31486</t>
         </is>
       </c>
-      <c r="D24" s="2" t="inlineStr">
+      <c r="E24" s="2" t="inlineStr">
         <is>
           <t>15449; 25667</t>
         </is>
       </c>
-      <c r="E24" s="2" t="inlineStr">
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>276268; 424378</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
         <is>
           <t>24829; 37276</t>
         </is>
       </c>
-      <c r="F24" s="2" t="inlineStr">
+      <c r="H24" s="2" t="inlineStr">
         <is>
           <t>26753; 37233</t>
         </is>
       </c>
-      <c r="G24" s="2" t="inlineStr">
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>518294; 710964</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
         <is>
           <t>46968; 63222</t>
         </is>
       </c>
-      <c r="H24" s="2" t="inlineStr">
+      <c r="K24" s="2" t="inlineStr">
         <is>
           <t>44364; 59199</t>
         </is>
@@ -2106,13 +2686,13 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A7:A9"/>
     <mergeCell ref="A4:A6"/>
-    <mergeCell ref="C1:D1"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
     <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A22:A24"/>
